--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>743782.8768753315</v>
+        <v>756259.4921810401</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>12049526.89607447</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3999173.13461325</v>
+        <v>2713959.118571168</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7055821.360109141</v>
+        <v>7581636.819506716</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>376.3896246940046</v>
       </c>
       <c r="G2" t="n">
-        <v>297.2145854944845</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -719,13 +721,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,16 +825,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -865,22 +867,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>115.1055716303395</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>31.26920727132341</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -896,10 +898,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>70.55649210883635</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -911,10 +913,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>390.6690756443562</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1056,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>123.0673923170405</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>104.9037564455521</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>83.56499726207576</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -1190,13 +1192,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>36.75455491934336</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,22 +1293,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>123.0673923170405</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1382,13 +1384,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>285.8242071249203</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>141.0753921893335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>4.378995526348149</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1579,16 +1581,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>218.7757544134943</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1607,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1619,13 +1621,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>86.47434149530828</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>133.7682651318491</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1816,22 +1818,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>218.7757544134943</v>
+        <v>244.3275881150115</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>51.58543740429418</v>
       </c>
       <c r="E19" t="n">
-        <v>129.1915305644991</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2138,7 +2140,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250128</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.49144062231203</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,19 +2292,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>180.0196592840957</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>116.511374306514</v>
+        <v>78.16614128474215</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2482,16 +2484,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>81.72500766840315</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2776,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2953,13 +2955,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>104.9037564455526</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>24.43802729683371</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100367</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3284,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3427,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>51.58543740429417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,16 +3480,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>218.008057705788</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3664,16 +3666,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>96.44420510686396</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>121.5810861820461</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>405.9505566596838</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>186.1320522797926</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3910,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>11.12043047005107</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>222.4418261038288</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>264.9052074689935</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -4028,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4040,10 +4042,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>77.0883371869469</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4138,10 +4140,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>73.28515221530699</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4189,7 +4191,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>218.0080577057882</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>780.6423111486572</v>
+        <v>863.9256988112818</v>
       </c>
       <c r="C2" t="n">
-        <v>780.6423111486572</v>
+        <v>863.9256988112818</v>
       </c>
       <c r="D2" t="n">
-        <v>780.6423111486572</v>
+        <v>863.9256988112818</v>
       </c>
       <c r="E2" t="n">
-        <v>354.6653712965148</v>
+        <v>863.9256988112818</v>
       </c>
       <c r="F2" t="n">
-        <v>354.6653712965148</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G2" t="n">
-        <v>54.44861827178296</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>54.44861827178296</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>728.2502693850971</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>1374.82761136252</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M2" t="n">
-        <v>1374.82761136252</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N2" t="n">
-        <v>2048.629262475834</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2618.063619462288</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2618.063619462288</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U2" t="n">
-        <v>2359.7087100587</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V2" t="n">
-        <v>2002.21929518495</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W2" t="n">
-        <v>1605.827945485297</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X2" t="n">
-        <v>1605.827945485297</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="Y2" t="n">
-        <v>1200.490675440187</v>
+        <v>1283.774063102812</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1480.866774040094</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>1363.360870557599</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>1259.520912072884</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>1154.818978345821</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>1061.173148028725</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>967.1193762463289</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>913.7432830086385</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>921.1899259705503</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>1192.887415250141</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>1502.464475528351</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L3" t="n">
-        <v>1502.464475528351</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M3" t="n">
-        <v>1502.464475528351</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="N3" t="n">
-        <v>1502.464475528351</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O3" t="n">
-        <v>2176.266126641665</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P3" t="n">
-        <v>2176.266126641665</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
-        <v>2640.411603504445</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>2722.430913589148</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2641.106666150403</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2499.226730448081</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>2314.458534367718</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>2109.485395506984</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1912.964018340201</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1749.486672106864</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1609.793783460156</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>489.5065225258203</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>317.5339594047363</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>154.217186531507</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>154.217186531507</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>154.217186531507</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>154.217186531507</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>154.217186531507</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2187.823032372085</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2017.687984891219</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="T4" t="n">
-        <v>1774.348637117119</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="U4" t="n">
-        <v>1494.164188617424</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="V4" t="n">
-        <v>1212.452721225452</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W4" t="n">
-        <v>937.6003173979655</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X4" t="n">
-        <v>906.0152595481438</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>679.6724912378859</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.157986293396</v>
+        <v>2516.694910195414</v>
       </c>
       <c r="C5" t="n">
-        <v>1381.157986293396</v>
+        <v>2089.794180208714</v>
       </c>
       <c r="D5" t="n">
-        <v>1309.888802345077</v>
+        <v>1666.501559393715</v>
       </c>
       <c r="E5" t="n">
-        <v>883.9118624929341</v>
+        <v>1240.524619541572</v>
       </c>
       <c r="F5" t="n">
-        <v>458.7876806823343</v>
+        <v>815.4004377309723</v>
       </c>
       <c r="G5" t="n">
-        <v>54.44861827178296</v>
+        <v>411.061375320421</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K5" t="n">
-        <v>728.2502693850971</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="L5" t="n">
-        <v>728.2502693850971</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="M5" t="n">
-        <v>1402.051920498411</v>
+        <v>818.8259796696775</v>
       </c>
       <c r="N5" t="n">
-        <v>2075.853571611725</v>
+        <v>1787.740533201524</v>
       </c>
       <c r="O5" t="n">
-        <v>2722.430913589148</v>
+        <v>2632.885183352336</v>
       </c>
       <c r="P5" t="n">
-        <v>2722.430913589148</v>
+        <v>3341.164462510264</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>3797.249942014447</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="S5" t="n">
-        <v>2618.063619462288</v>
+        <v>3810.43898276949</v>
       </c>
       <c r="T5" t="n">
-        <v>2618.063619462288</v>
+        <v>3589.513411814124</v>
       </c>
       <c r="U5" t="n">
-        <v>2618.063619462288</v>
+        <v>3331.158502410536</v>
       </c>
       <c r="V5" t="n">
-        <v>2618.063619462288</v>
+        <v>3331.158502410536</v>
       </c>
       <c r="W5" t="n">
-        <v>2618.063619462288</v>
+        <v>3331.158502410536</v>
       </c>
       <c r="X5" t="n">
-        <v>2206.343620630036</v>
+        <v>3331.158502410536</v>
       </c>
       <c r="Y5" t="n">
-        <v>1801.006350584926</v>
+        <v>2936.543274486944</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="I6" t="n">
-        <v>61.8952612336948</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J6" t="n">
-        <v>333.5927505132859</v>
+        <v>78.296125537927</v>
       </c>
       <c r="K6" t="n">
-        <v>333.5927505132859</v>
+        <v>78.296125537927</v>
       </c>
       <c r="L6" t="n">
-        <v>333.5927505132859</v>
+        <v>915.0949336208331</v>
       </c>
       <c r="M6" t="n">
-        <v>333.5927505132859</v>
+        <v>915.0949336208331</v>
       </c>
       <c r="N6" t="n">
-        <v>515.5329466256644</v>
+        <v>915.0949336208331</v>
       </c>
       <c r="O6" t="n">
-        <v>1189.334597738979</v>
+        <v>1340.818969170954</v>
       </c>
       <c r="P6" t="n">
-        <v>1863.136248852293</v>
+        <v>1340.818969170954</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1804.964446033734</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>389.7379542660963</v>
+        <v>302.375191087591</v>
       </c>
       <c r="C7" t="n">
-        <v>217.7653911450122</v>
+        <v>302.375191087591</v>
       </c>
       <c r="D7" t="n">
-        <v>54.44861827178296</v>
+        <v>302.375191087591</v>
       </c>
       <c r="E7" t="n">
-        <v>54.44861827178296</v>
+        <v>302.375191087591</v>
       </c>
       <c r="F7" t="n">
-        <v>54.44861827178296</v>
+        <v>302.375191087591</v>
       </c>
       <c r="G7" t="n">
-        <v>54.44861827178296</v>
+        <v>302.375191087591</v>
       </c>
       <c r="H7" t="n">
-        <v>54.44861827178296</v>
+        <v>178.064693797651</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R7" t="n">
-        <v>2234.861645684911</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="S7" t="n">
-        <v>2128.898255335869</v>
+        <v>2041.535492157363</v>
       </c>
       <c r="T7" t="n">
-        <v>1885.558907561769</v>
+        <v>1798.196144383263</v>
       </c>
       <c r="U7" t="n">
-        <v>1605.374459062073</v>
+        <v>1518.011695883568</v>
       </c>
       <c r="V7" t="n">
-        <v>1323.662991670102</v>
+        <v>1236.300228491596</v>
       </c>
       <c r="W7" t="n">
-        <v>1048.810587842615</v>
+        <v>961.4478246641095</v>
       </c>
       <c r="X7" t="n">
-        <v>806.2466912884199</v>
+        <v>718.8839281099146</v>
       </c>
       <c r="Y7" t="n">
-        <v>579.903922978162</v>
+        <v>492.5411597996566</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1727.063140271081</v>
+        <v>2516.694910195414</v>
       </c>
       <c r="C8" t="n">
-        <v>1727.063140271081</v>
+        <v>2089.794180208714</v>
       </c>
       <c r="D8" t="n">
-        <v>1642.654052127571</v>
+        <v>1666.501559393715</v>
       </c>
       <c r="E8" t="n">
-        <v>1216.677112275428</v>
+        <v>1240.524619541572</v>
       </c>
       <c r="F8" t="n">
-        <v>791.5529304648283</v>
+        <v>815.4004377309723</v>
       </c>
       <c r="G8" t="n">
-        <v>387.2138680542769</v>
+        <v>411.061375320421</v>
       </c>
       <c r="H8" t="n">
-        <v>89.34548952831176</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K8" t="n">
-        <v>701.0259602492056</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="L8" t="n">
-        <v>1374.82761136252</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="M8" t="n">
-        <v>2048.629262475834</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="N8" t="n">
-        <v>2722.430913589148</v>
+        <v>1787.740533201524</v>
       </c>
       <c r="O8" t="n">
-        <v>2722.430913589148</v>
+        <v>2632.885183352336</v>
       </c>
       <c r="P8" t="n">
-        <v>2722.430913589148</v>
+        <v>3341.164462510264</v>
       </c>
       <c r="Q8" t="n">
-        <v>2722.430913589148</v>
+        <v>3797.249942014447</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="S8" t="n">
-        <v>2618.063619462288</v>
+        <v>3810.43898276949</v>
       </c>
       <c r="T8" t="n">
-        <v>2397.138048506922</v>
+        <v>3589.513411814124</v>
       </c>
       <c r="U8" t="n">
-        <v>2138.783139103334</v>
+        <v>3331.158502410536</v>
       </c>
       <c r="V8" t="n">
-        <v>2138.783139103334</v>
+        <v>2973.669087536786</v>
       </c>
       <c r="W8" t="n">
-        <v>2138.783139103334</v>
+        <v>2936.543274486944</v>
       </c>
       <c r="X8" t="n">
-        <v>1727.063140271081</v>
+        <v>2936.543274486944</v>
       </c>
       <c r="Y8" t="n">
-        <v>1727.063140271081</v>
+        <v>2936.543274486944</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J9" t="n">
-        <v>326.146107551374</v>
+        <v>78.296125537927</v>
       </c>
       <c r="K9" t="n">
-        <v>326.146107551374</v>
+        <v>81.27039450368397</v>
       </c>
       <c r="L9" t="n">
-        <v>326.146107551374</v>
+        <v>918.0692025865901</v>
       </c>
       <c r="M9" t="n">
-        <v>515.5329466256644</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="N9" t="n">
-        <v>1189.334597738979</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="O9" t="n">
-        <v>1189.334597738979</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1137.62974079602</v>
+        <v>302.375191087591</v>
       </c>
       <c r="C10" t="n">
-        <v>965.6571776749358</v>
+        <v>178.064693797651</v>
       </c>
       <c r="D10" t="n">
-        <v>802.3404048017065</v>
+        <v>178.064693797651</v>
       </c>
       <c r="E10" t="n">
-        <v>636.1321989545601</v>
+        <v>178.064693797651</v>
       </c>
       <c r="F10" t="n">
-        <v>464.2704247291205</v>
+        <v>178.064693797651</v>
       </c>
       <c r="G10" t="n">
-        <v>298.0134550233526</v>
+        <v>178.064693797651</v>
       </c>
       <c r="H10" t="n">
-        <v>154.217186531507</v>
+        <v>178.064693797651</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R10" t="n">
-        <v>2234.861645684911</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="S10" t="n">
-        <v>2234.861645684911</v>
+        <v>2041.535492157363</v>
       </c>
       <c r="T10" t="n">
-        <v>2234.861645684911</v>
+        <v>1798.196144383263</v>
       </c>
       <c r="U10" t="n">
-        <v>2234.861645684911</v>
+        <v>1518.011695883568</v>
       </c>
       <c r="V10" t="n">
-        <v>2071.554778200025</v>
+        <v>1236.300228491596</v>
       </c>
       <c r="W10" t="n">
-        <v>1796.702374372538</v>
+        <v>961.4478246641095</v>
       </c>
       <c r="X10" t="n">
-        <v>1554.138477818344</v>
+        <v>718.8839281099146</v>
       </c>
       <c r="Y10" t="n">
-        <v>1327.795709508086</v>
+        <v>492.5411597996566</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2160.082153146776</v>
+        <v>1814.487469258898</v>
       </c>
       <c r="C11" t="n">
-        <v>1733.181423160076</v>
+        <v>1387.586739272198</v>
       </c>
       <c r="D11" t="n">
-        <v>1309.888802345077</v>
+        <v>964.294118457198</v>
       </c>
       <c r="E11" t="n">
-        <v>883.9118624929341</v>
+        <v>538.3171786050556</v>
       </c>
       <c r="F11" t="n">
-        <v>458.7876806823343</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="G11" t="n">
-        <v>54.44861827178296</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K11" t="n">
-        <v>54.44861827178296</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="L11" t="n">
-        <v>728.2502693850971</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="M11" t="n">
-        <v>1402.051920498411</v>
+        <v>2361.38234758761</v>
       </c>
       <c r="N11" t="n">
-        <v>2075.853571611725</v>
+        <v>2361.38234758761</v>
       </c>
       <c r="O11" t="n">
-        <v>2722.430913589148</v>
+        <v>3206.526997738422</v>
       </c>
       <c r="P11" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="Q11" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>3810.43898276949</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>3589.513411814124</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.430913589148</v>
+        <v>3331.158502410536</v>
       </c>
       <c r="V11" t="n">
-        <v>2722.430913589148</v>
+        <v>3042.447182082334</v>
       </c>
       <c r="W11" t="n">
-        <v>2722.430913589148</v>
+        <v>2646.05583238268</v>
       </c>
       <c r="X11" t="n">
-        <v>2722.430913589148</v>
+        <v>2234.335833550428</v>
       </c>
       <c r="Y11" t="n">
-        <v>2579.930517438306</v>
+        <v>2234.335833550428</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="L12" t="n">
-        <v>54.44861827178296</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="M12" t="n">
-        <v>728.2502693850971</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="N12" t="n">
-        <v>1402.051920498411</v>
+        <v>997.5024781069651</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1137.62974079602</v>
+        <v>492.5411597996566</v>
       </c>
       <c r="C13" t="n">
-        <v>965.6571776749358</v>
+        <v>492.5411597996566</v>
       </c>
       <c r="D13" t="n">
-        <v>802.3404048017065</v>
+        <v>492.5411597996566</v>
       </c>
       <c r="E13" t="n">
-        <v>636.1321989545601</v>
+        <v>492.5411597996566</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>488.1179319952645</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>321.8609622894967</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>178.064693797651</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="S13" t="n">
-        <v>2017.687984891219</v>
+        <v>2041.535492157363</v>
       </c>
       <c r="T13" t="n">
-        <v>2017.687984891219</v>
+        <v>1798.196144383263</v>
       </c>
       <c r="U13" t="n">
-        <v>2017.687984891219</v>
+        <v>1518.011695883568</v>
       </c>
       <c r="V13" t="n">
-        <v>2017.687984891219</v>
+        <v>1236.300228491596</v>
       </c>
       <c r="W13" t="n">
-        <v>1796.702374372538</v>
+        <v>961.4478246641095</v>
       </c>
       <c r="X13" t="n">
-        <v>1554.138477818344</v>
+        <v>718.8839281099146</v>
       </c>
       <c r="Y13" t="n">
-        <v>1327.795709508086</v>
+        <v>492.5411597996566</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1755.743090736225</v>
+        <v>2089.794180208714</v>
       </c>
       <c r="C14" t="n">
-        <v>1328.842360749525</v>
+        <v>2089.794180208714</v>
       </c>
       <c r="D14" t="n">
-        <v>905.5497399345252</v>
+        <v>1666.501559393715</v>
       </c>
       <c r="E14" t="n">
-        <v>479.5728000823827</v>
+        <v>1240.524619541572</v>
       </c>
       <c r="F14" t="n">
-        <v>54.44861827178296</v>
+        <v>815.4004377309723</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>411.061375320421</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="K14" t="n">
-        <v>54.44861827178296</v>
+        <v>793.804433513426</v>
       </c>
       <c r="L14" t="n">
-        <v>728.2502693850971</v>
+        <v>1723.429481132703</v>
       </c>
       <c r="M14" t="n">
-        <v>1402.051920498411</v>
+        <v>2237.612444206576</v>
       </c>
       <c r="N14" t="n">
-        <v>2075.853571611725</v>
+        <v>3206.526997738422</v>
       </c>
       <c r="O14" t="n">
-        <v>2722.430913589148</v>
+        <v>3206.526997738422</v>
       </c>
       <c r="P14" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>3810.43898276949</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.430913589148</v>
+        <v>3723.09116307726</v>
       </c>
       <c r="U14" t="n">
-        <v>2722.430913589148</v>
+        <v>3723.09116307726</v>
       </c>
       <c r="V14" t="n">
-        <v>2722.430913589148</v>
+        <v>3723.09116307726</v>
       </c>
       <c r="W14" t="n">
-        <v>2722.430913589148</v>
+        <v>3326.699813377606</v>
       </c>
       <c r="X14" t="n">
-        <v>2310.710914756895</v>
+        <v>2914.979814545354</v>
       </c>
       <c r="Y14" t="n">
-        <v>2175.591455027755</v>
+        <v>2509.642544500244</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="K15" t="n">
-        <v>644.9335448401225</v>
+        <v>81.27039450368397</v>
       </c>
       <c r="L15" t="n">
-        <v>725.1891208761992</v>
+        <v>918.0692025865901</v>
       </c>
       <c r="M15" t="n">
-        <v>725.1891208761992</v>
+        <v>918.0692025865901</v>
       </c>
       <c r="N15" t="n">
-        <v>725.1891208761992</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="O15" t="n">
-        <v>725.1891208761992</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P15" t="n">
-        <v>1398.990771989513</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1137.62974079602</v>
+        <v>989.5046849410799</v>
       </c>
       <c r="C16" t="n">
-        <v>965.6571776749358</v>
+        <v>989.5046849410799</v>
       </c>
       <c r="D16" t="n">
-        <v>802.3404048017065</v>
+        <v>826.1879120678506</v>
       </c>
       <c r="E16" t="n">
-        <v>636.1321989545601</v>
+        <v>659.9797062207041</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>488.1179319952645</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>321.8609622894967</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>178.064693797651</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="S16" t="n">
-        <v>2017.687984891219</v>
+        <v>2041.535492157363</v>
       </c>
       <c r="T16" t="n">
-        <v>2017.687984891219</v>
+        <v>1798.196144383263</v>
       </c>
       <c r="U16" t="n">
-        <v>2017.687984891219</v>
+        <v>1518.011695883568</v>
       </c>
       <c r="V16" t="n">
-        <v>2017.687984891219</v>
+        <v>1236.300228491596</v>
       </c>
       <c r="W16" t="n">
-        <v>1796.702374372538</v>
+        <v>989.5046849410799</v>
       </c>
       <c r="X16" t="n">
-        <v>1554.138477818344</v>
+        <v>989.5046849410799</v>
       </c>
       <c r="Y16" t="n">
-        <v>1327.795709508086</v>
+        <v>989.5046849410799</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5531,34 +5533,34 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5601,7 +5603,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>742.8905159778161</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C19" t="n">
-        <v>570.9179528567321</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D19" t="n">
-        <v>570.9179528567321</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E19" t="n">
-        <v>440.421457337036</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5671,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5716,7 +5718,7 @@
         <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.8905159778161</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2988.069926596602</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5829,28 +5831,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>610.0460590406528</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>1446.844867123559</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M21" t="n">
-        <v>1446.844867123559</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N21" t="n">
-        <v>1446.844867123559</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O21" t="n">
-        <v>1446.844867123559</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>418.0715450187581</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C22" t="n">
-        <v>246.0989818976742</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D22" t="n">
-        <v>246.0989818976742</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E22" t="n">
-        <v>246.0989818976742</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F22" t="n">
-        <v>246.0989818976742</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5938,22 +5940,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>4025.820723818557</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3918.135197142812</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C25" t="n">
-        <v>3746.162634021728</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D25" t="n">
-        <v>3582.845861148498</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E25" t="n">
-        <v>3416.637655301352</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F25" t="n">
-        <v>3244.775881075912</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>5115.135670291427</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>4834.951221791732</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>4553.23975439976</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>4278.387350572273</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>4035.823454018078</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>4035.823454018078</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>338.6504695827671</v>
       </c>
       <c r="K26" t="n">
-        <v>651.5495334576516</v>
+        <v>1054.158777558266</v>
       </c>
       <c r="L26" t="n">
-        <v>1581.174581076928</v>
+        <v>1983.783825177543</v>
       </c>
       <c r="M26" t="n">
-        <v>2585.460682495986</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6309,22 +6311,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>855.0038060102931</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>786.1193363033792</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C28" t="n">
-        <v>614.1467731822952</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D28" t="n">
-        <v>450.8300003090659</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E28" t="n">
-        <v>284.6217944619194</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F28" t="n">
-        <v>284.6217944619194</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>284.6217944619194</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6409,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.48047715319</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.628073325703</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.628073325703</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y28" t="n">
-        <v>976.2853050154449</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4090.576687723259</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3270.011978872612</v>
+        <v>3375.975369221654</v>
       </c>
       <c r="C31" t="n">
-        <v>3098.039415751528</v>
+        <v>3204.00280610057</v>
       </c>
       <c r="D31" t="n">
-        <v>2934.722642878299</v>
+        <v>3204.00280610057</v>
       </c>
       <c r="E31" t="n">
-        <v>2934.722642878299</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P31" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S31" t="n">
-        <v>5009.172279942384</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="T31" t="n">
-        <v>4765.832932168284</v>
+        <v>4871.796322517326</v>
       </c>
       <c r="U31" t="n">
-        <v>4485.648483668589</v>
+        <v>4591.611874017631</v>
       </c>
       <c r="V31" t="n">
-        <v>4203.937016276617</v>
+        <v>4309.900406625659</v>
       </c>
       <c r="W31" t="n">
-        <v>3929.08461244913</v>
+        <v>4035.048002798173</v>
       </c>
       <c r="X31" t="n">
-        <v>3686.520715894936</v>
+        <v>3792.484106243978</v>
       </c>
       <c r="Y31" t="n">
-        <v>3460.177947584677</v>
+        <v>3566.14133793372</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C33" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D33" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E33" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F33" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G33" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J33" t="n">
-        <v>374.0002026854196</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K33" t="n">
-        <v>648.6278400003578</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L33" t="n">
-        <v>648.6278400003578</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M33" t="n">
-        <v>648.6278400003578</v>
+        <v>4025.820723818556</v>
       </c>
       <c r="N33" t="n">
-        <v>648.6278400003578</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="O33" t="n">
-        <v>648.6278400003578</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P33" t="n">
-        <v>1364.825557038856</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S33" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T33" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U33" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V33" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W33" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X33" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y33" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4017.903765402536</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>3845.931202281452</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D34" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E34" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F34" t="n">
-        <v>3344.544449335636</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G34" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291427</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>5115.135670291427</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>5115.135670291427</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V34" t="n">
-        <v>4951.828802806542</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W34" t="n">
-        <v>4676.976398979054</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X34" t="n">
-        <v>4434.41250242486</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y34" t="n">
-        <v>4208.069734114601</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7011,19 +7013,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>326.3817789554925</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>154.4092158344085</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D37" t="n">
-        <v>102.3027134058285</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7126,19 +7128,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7175,49 +7177,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>195.4640539534674</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1125.089101572744</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>3561.675246955778</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N39" t="n">
-        <v>4650.990193428648</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>4650.990193428648</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>4650.990193428648</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>775.6620294727279</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C40" t="n">
-        <v>603.6894663516439</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D40" t="n">
-        <v>440.3726934784146</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G40" t="n">
         <v>102.3027134058285</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7357,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.580693338092</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U40" t="n">
-        <v>1832.396244838396</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V40" t="n">
-        <v>1709.587066876733</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.734663049246</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.170766495052</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y40" t="n">
-        <v>965.8279981847936</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>979.5651044848208</v>
+        <v>1340.372104668241</v>
       </c>
       <c r="C41" t="n">
-        <v>979.5651044848208</v>
+        <v>913.4713746815407</v>
       </c>
       <c r="D41" t="n">
-        <v>979.5651044848208</v>
+        <v>503.4203073485268</v>
       </c>
       <c r="E41" t="n">
-        <v>979.5651044848208</v>
+        <v>503.4203073485268</v>
       </c>
       <c r="F41" t="n">
-        <v>791.5529304648283</v>
+        <v>78.296125537927</v>
       </c>
       <c r="G41" t="n">
-        <v>387.2138680542769</v>
+        <v>78.296125537927</v>
       </c>
       <c r="H41" t="n">
-        <v>89.34548952831176</v>
+        <v>78.296125537927</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="K41" t="n">
-        <v>583.4696253673028</v>
+        <v>793.804433513426</v>
       </c>
       <c r="L41" t="n">
-        <v>1257.271276480617</v>
+        <v>793.804433513426</v>
       </c>
       <c r="M41" t="n">
-        <v>1931.072927593931</v>
+        <v>1644.661593709508</v>
       </c>
       <c r="N41" t="n">
-        <v>2604.874578707245</v>
+        <v>2613.576147241355</v>
       </c>
       <c r="O41" t="n">
-        <v>2604.874578707245</v>
+        <v>3458.720797392167</v>
       </c>
       <c r="P41" t="n">
-        <v>2604.874578707245</v>
+        <v>3458.720797392167</v>
       </c>
       <c r="Q41" t="n">
-        <v>2604.874578707245</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="S41" t="n">
-        <v>2618.063619462288</v>
+        <v>3810.43898276949</v>
       </c>
       <c r="T41" t="n">
-        <v>2397.138048506922</v>
+        <v>3589.513411814124</v>
       </c>
       <c r="U41" t="n">
-        <v>2138.783139103334</v>
+        <v>3331.158502410536</v>
       </c>
       <c r="V41" t="n">
-        <v>1781.293724229584</v>
+        <v>2973.669087536786</v>
       </c>
       <c r="W41" t="n">
-        <v>1384.902374529931</v>
+        <v>2577.277737837133</v>
       </c>
       <c r="X41" t="n">
-        <v>1384.902374529931</v>
+        <v>2165.55773900488</v>
       </c>
       <c r="Y41" t="n">
-        <v>979.5651044848208</v>
+        <v>1760.220468959771</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J42" t="n">
-        <v>326.146107551374</v>
+        <v>78.296125537927</v>
       </c>
       <c r="K42" t="n">
-        <v>916.6310341197136</v>
+        <v>78.296125537927</v>
       </c>
       <c r="L42" t="n">
-        <v>1189.334597738979</v>
+        <v>78.296125537927</v>
       </c>
       <c r="M42" t="n">
-        <v>1863.136248852293</v>
+        <v>78.296125537927</v>
       </c>
       <c r="N42" t="n">
-        <v>1863.136248852293</v>
+        <v>1047.210679069774</v>
       </c>
       <c r="O42" t="n">
-        <v>1863.136248852293</v>
+        <v>1047.210679069774</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1763.408396108272</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>827.5765025984064</v>
+        <v>762.888199655383</v>
       </c>
       <c r="C43" t="n">
-        <v>655.6039394773223</v>
+        <v>590.915636534299</v>
       </c>
       <c r="D43" t="n">
-        <v>492.287166604093</v>
+        <v>427.5988636610697</v>
       </c>
       <c r="E43" t="n">
-        <v>326.0789607569466</v>
+        <v>261.3906578139232</v>
       </c>
       <c r="F43" t="n">
-        <v>154.217186531507</v>
+        <v>89.52888358848364</v>
       </c>
       <c r="G43" t="n">
-        <v>154.217186531507</v>
+        <v>78.296125537927</v>
       </c>
       <c r="H43" t="n">
-        <v>154.217186531507</v>
+        <v>78.296125537927</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="T43" t="n">
-        <v>1991.522297910811</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.337849411115</v>
+        <v>1978.52470445136</v>
       </c>
       <c r="V43" t="n">
-        <v>1711.337849411115</v>
+        <v>1696.813237059388</v>
       </c>
       <c r="W43" t="n">
-        <v>1486.649136174925</v>
+        <v>1421.960833231901</v>
       </c>
       <c r="X43" t="n">
-        <v>1244.08523962073</v>
+        <v>1179.396936677707</v>
       </c>
       <c r="Y43" t="n">
-        <v>1017.742471310472</v>
+        <v>953.0541683674487</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>883.9118624929341</v>
+        <v>2183.92966041292</v>
       </c>
       <c r="C44" t="n">
-        <v>883.9118624929341</v>
+        <v>1757.02893042622</v>
       </c>
       <c r="D44" t="n">
-        <v>883.9118624929341</v>
+        <v>1333.736309611221</v>
       </c>
       <c r="E44" t="n">
-        <v>883.9118624929341</v>
+        <v>907.7593697590781</v>
       </c>
       <c r="F44" t="n">
-        <v>458.7876806823343</v>
+        <v>482.6351879484783</v>
       </c>
       <c r="G44" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J44" t="n">
-        <v>54.44861827178296</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K44" t="n">
-        <v>728.2502693850971</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="L44" t="n">
-        <v>728.2502693850971</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="M44" t="n">
-        <v>728.2502693850971</v>
+        <v>3054.947493481445</v>
       </c>
       <c r="N44" t="n">
-        <v>1402.051920498411</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="O44" t="n">
-        <v>1592.543782971651</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="P44" t="n">
-        <v>2266.345434084965</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="Q44" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.430913589148</v>
+        <v>3693.880705940983</v>
       </c>
       <c r="U44" t="n">
-        <v>2722.430913589148</v>
+        <v>3435.525796537396</v>
       </c>
       <c r="V44" t="n">
-        <v>2364.941498715398</v>
+        <v>3078.036381663645</v>
       </c>
       <c r="W44" t="n">
-        <v>1968.550149015745</v>
+        <v>2681.645031963993</v>
       </c>
       <c r="X44" t="n">
-        <v>1556.830150183492</v>
+        <v>2603.77802470445</v>
       </c>
       <c r="Y44" t="n">
-        <v>1151.492880138382</v>
+        <v>2603.77802470445</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="I45" t="n">
-        <v>61.8952612336948</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J45" t="n">
-        <v>333.5927505132859</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="K45" t="n">
-        <v>924.0776770816254</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="L45" t="n">
-        <v>924.0776770816254</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="M45" t="n">
-        <v>924.0776770816254</v>
+        <v>918.0692025865901</v>
       </c>
       <c r="N45" t="n">
-        <v>924.0776770816254</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="O45" t="n">
-        <v>924.0776770816254</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P45" t="n">
-        <v>1597.87932819494</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q45" t="n">
-        <v>1781.11693876759</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1625.199008700256</v>
+        <v>905.977675619876</v>
       </c>
       <c r="C46" t="n">
-        <v>1453.226445579172</v>
+        <v>734.005112498792</v>
       </c>
       <c r="D46" t="n">
-        <v>1289.909672705943</v>
+        <v>734.005112498792</v>
       </c>
       <c r="E46" t="n">
-        <v>1123.701466858797</v>
+        <v>659.9797062207041</v>
       </c>
       <c r="F46" t="n">
-        <v>951.8396926333571</v>
+        <v>488.1179319952645</v>
       </c>
       <c r="G46" t="n">
-        <v>785.5827229275893</v>
+        <v>321.8609622894967</v>
       </c>
       <c r="H46" t="n">
-        <v>641.7864544357437</v>
+        <v>178.064693797651</v>
       </c>
       <c r="I46" t="n">
-        <v>542.0178861760197</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J46" t="n">
-        <v>599.5092144001777</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K46" t="n">
-        <v>826.0368156060149</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L46" t="n">
-        <v>1180.726136900436</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M46" t="n">
-        <v>1571.911931870686</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N46" t="n">
-        <v>1949.403442746722</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O46" t="n">
-        <v>2304.831571426485</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P46" t="n">
-        <v>2595.430783348386</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q46" t="n">
-        <v>2722.430913589148</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R46" t="n">
-        <v>2675.392300276321</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S46" t="n">
-        <v>2505.257252795456</v>
+        <v>2088.57410547019</v>
       </c>
       <c r="T46" t="n">
-        <v>2261.917905021356</v>
+        <v>1845.23475769609</v>
       </c>
       <c r="U46" t="n">
-        <v>2041.70774572258</v>
+        <v>1565.050309196394</v>
       </c>
       <c r="V46" t="n">
-        <v>2041.70774572258</v>
+        <v>1565.050309196394</v>
       </c>
       <c r="W46" t="n">
-        <v>2041.70774572258</v>
+        <v>1565.050309196394</v>
       </c>
       <c r="X46" t="n">
-        <v>2041.70774572258</v>
+        <v>1322.4864126422</v>
       </c>
       <c r="Y46" t="n">
-        <v>1815.364977412322</v>
+        <v>1096.143644331942</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>716.3723291920963</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>691.4204686724437</v>
+        <v>205.7998844961774</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>717.9986877533111</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>335.1033351244542</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>268.7645418748068</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>718.0389912967188</v>
+        <v>419.1750965508005</v>
       </c>
       <c r="N5" t="n">
-        <v>717.8873512317331</v>
+        <v>1015.981192058534</v>
       </c>
       <c r="O5" t="n">
-        <v>690.4993855958451</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>205.1210040846311</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>703.7796181195092</v>
+        <v>453.1961680556779</v>
       </c>
       <c r="P6" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>688.8730270346301</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>717.8873512317331</v>
+        <v>674.989361088186</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,25 +8531,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>25.40354591995655</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M9" t="n">
-        <v>214.3966179611061</v>
+        <v>1001.798349736416</v>
       </c>
       <c r="N9" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>718.0389912967188</v>
+        <v>315.5619776853026</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>690.4993855958451</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
@@ -8766,7 +8768,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8775,13 +8777,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>701.9507566108286</v>
+        <v>675.3923850715689</v>
       </c>
       <c r="O12" t="n">
-        <v>488.9136355342238</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8927,22 +8929,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>556.8079932770813</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>1015.981192058534</v>
       </c>
       <c r="O14" t="n">
-        <v>690.4993855958451</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9006,25 +9008,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>25.40354591995655</v>
       </c>
       <c r="L15" t="n">
-        <v>103.5813251345091</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1000.044597437629</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9179,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286672</v>
+        <v>124.3756766890872</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9249,10 +9251,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9407,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>924.3306556055956</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>723.1315272622212</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>260.8293917679123</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
@@ -9495,13 +9497,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9644,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685286</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>268.1550667350194</v>
       </c>
       <c r="K26" t="n">
-        <v>224.2932485068573</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9884,7 +9886,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9893,10 +9895,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,25 +9959,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>782.8192206581333</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>196.7283130837754</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10124,13 +10126,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>611.7910214708227</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>299.8008876868062</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>100.0581876036193</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10823,7 +10825,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>129.8669649843436</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10838,10 +10840,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10908,7 +10910,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>280.9020403556204</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N39" t="n">
         <v>1121.661155963915</v>
@@ -10920,7 +10922,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11060,28 +11062,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>570.1292544266475</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>718.0389912967188</v>
+        <v>896.8829398651711</v>
       </c>
       <c r="N41" t="n">
-        <v>717.8873512317331</v>
+        <v>1015.981192058534</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11138,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>297.9732317841942</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1000.044597437629</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>147.5706342588421</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N44" t="n">
-        <v>717.8873512317331</v>
+        <v>905.8238485060675</v>
       </c>
       <c r="O44" t="n">
-        <v>229.806982056266</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>596.9105055315927</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1000.044597437629</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>207.8355338169076</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22553,19 +22555,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>44.48331529848917</v>
       </c>
       <c r="G2" t="n">
-        <v>103.0810862919614</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22600,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22711,16 +22713,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,22 +22755,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>53.32812537571701</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.8690503173295</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22784,10 +22786,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>348.5032024980134</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22799,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,10 +22837,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -22847,10 +22849,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>10.6148217003024</v>
       </c>
     </row>
     <row r="6">
@@ -22942,10 +22944,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -22957,10 +22959,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>19.29091348988663</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>63.52994056050434</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>335.494697344774</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23078,13 +23080,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>355.6728812833132</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -23179,22 +23181,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>47.18544517283263</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>68.09031360009266</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>260.2085051553251</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>165.764160956837</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23467,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>53.32812537571778</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>132.2419737505049</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -23555,13 +23557,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>267.5156322128095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23704,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>53.32812537571778</v>
+        <v>27.77629167420065</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E19" t="n">
-        <v>35.35459322417589</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.77286840263297</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>60.1185983045572</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.75293471843098</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>60.633298138524</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181069</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24886,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>63.52994056050389</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,19 +25125,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>252.944576717865</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080147</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>22.13019988286487</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>68.15019490184622</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25597,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>157.3132665360053</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>13.10913794716589</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>234.7408877127011</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>153.4739695386591</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,16 +25839,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>49.66205368538326</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>150.7446731796212</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25916,10 +25918,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>330.5144616569833</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26026,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>91.26097157336798</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>59.37454630891051</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26086,7 +26088,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490592.3860087409</v>
+        <v>440623.7515812275</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490592.3860087409</v>
+        <v>610349.1982210114</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490592.386008741</v>
+        <v>610349.1982210114</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490592.3860087409</v>
+        <v>610349.1982210113</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490592.3860087409</v>
+        <v>610349.1982210114</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>730904.8773982293</v>
+        <v>730904.8773982294</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>730904.8773982296</v>
+        <v>730904.8773982294</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>730904.8773982296</v>
+        <v>730904.8773982294</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>730904.8773982296</v>
+        <v>730904.8773982294</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490592.3860087411</v>
+        <v>610349.1982210117</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490592.386008741</v>
+        <v>610349.1982210117</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>179192.2260115315</v>
+        <v>160941.5819322671</v>
       </c>
       <c r="C2" t="n">
-        <v>179192.2260115315</v>
+        <v>222932.4438660748</v>
       </c>
       <c r="D2" t="n">
-        <v>179192.2260115316</v>
+        <v>222932.4438660749</v>
       </c>
       <c r="E2" t="n">
-        <v>179192.2260115315</v>
+        <v>222932.4438660748</v>
       </c>
       <c r="F2" t="n">
-        <v>179192.2260115316</v>
+        <v>222932.4438660748</v>
       </c>
       <c r="G2" t="n">
         <v>266964.4414902873</v>
@@ -26335,25 +26337,25 @@
         <v>266964.4414902873</v>
       </c>
       <c r="J2" t="n">
+        <v>266964.4414902874</v>
+      </c>
+      <c r="K2" t="n">
+        <v>266964.4414902873</v>
+      </c>
+      <c r="L2" t="n">
+        <v>266964.4414902873</v>
+      </c>
+      <c r="M2" t="n">
         <v>266964.4414902872</v>
-      </c>
-      <c r="K2" t="n">
-        <v>266964.4414902874</v>
-      </c>
-      <c r="L2" t="n">
-        <v>266964.4414902874</v>
-      </c>
-      <c r="M2" t="n">
-        <v>266964.4414902873</v>
       </c>
       <c r="N2" t="n">
         <v>266964.4414902873</v>
       </c>
       <c r="O2" t="n">
-        <v>179192.2260115317</v>
+        <v>222932.4438660748</v>
       </c>
       <c r="P2" t="n">
-        <v>179192.2260115316</v>
+        <v>222932.4438660748</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>136488.8862029676</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>82248.07044717239</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>108731.2256621307</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10119.98377357185</v>
+        <v>9081.116486988822</v>
       </c>
       <c r="C4" t="n">
-        <v>10119.98377357185</v>
+        <v>12609.7743387567</v>
       </c>
       <c r="D4" t="n">
-        <v>10119.98377357185</v>
+        <v>12609.7743387567</v>
       </c>
       <c r="E4" t="n">
-        <v>10119.98377357185</v>
+        <v>12609.7743387567</v>
       </c>
       <c r="F4" t="n">
-        <v>10119.98377357185</v>
+        <v>12609.7743387567</v>
       </c>
       <c r="G4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="I4" t="n">
         <v>15116.17365792743</v>
@@ -26448,16 +26450,16 @@
         <v>15116.17365792743</v>
       </c>
       <c r="M4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="N4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="O4" t="n">
-        <v>10119.98377357185</v>
+        <v>12609.7743387567</v>
       </c>
       <c r="P4" t="n">
-        <v>10119.98377357185</v>
+        <v>12609.7743387567</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>93132.65540882452</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>93132.65540882452</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.05540882452</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.05540882452</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.05540882452</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.05540882452</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134023.6114122794</v>
+        <v>-101990.5190068871</v>
       </c>
       <c r="C6" t="n">
-        <v>94063.69235140465</v>
+        <v>-19298.87208447405</v>
       </c>
       <c r="D6" t="n">
-        <v>94063.69235140474</v>
+        <v>117190.0141184937</v>
       </c>
       <c r="E6" t="n">
-        <v>127691.2923514046</v>
+        <v>150817.6141184936</v>
       </c>
       <c r="F6" t="n">
-        <v>127691.2923514047</v>
+        <v>150817.6141184936</v>
       </c>
       <c r="G6" t="n">
-        <v>10147.08483374408</v>
+        <v>91850.13519675782</v>
       </c>
       <c r="H6" t="n">
+        <v>174098.2056439303</v>
+      </c>
+      <c r="I6" t="n">
         <v>174098.2056439302</v>
       </c>
-      <c r="I6" t="n">
-        <v>174098.2056439301</v>
-      </c>
       <c r="J6" t="n">
-        <v>-3978.722844849704</v>
+        <v>28564.53570911381</v>
       </c>
       <c r="K6" t="n">
-        <v>174098.2056439302</v>
+        <v>65366.97998179952</v>
       </c>
       <c r="L6" t="n">
         <v>174098.2056439302</v>
       </c>
       <c r="M6" t="n">
+        <v>174098.2056439301</v>
+      </c>
+      <c r="N6" t="n">
         <v>174098.2056439302</v>
       </c>
-      <c r="N6" t="n">
-        <v>174098.2056439301</v>
-      </c>
       <c r="O6" t="n">
-        <v>127691.2923514048</v>
+        <v>150817.6141184936</v>
       </c>
       <c r="P6" t="n">
-        <v>127691.2923514047</v>
+        <v>150817.6141184936</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240875</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>422.4737561084933</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>300.0823483487691</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>422.4737561084933</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>422.4737561084933</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>300.0823483487691</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34696,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>653.1084262398208</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>312.7041012911209</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>680.607728397287</v>
+        <v>381.7438336513687</v>
       </c>
       <c r="N5" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="O5" t="n">
-        <v>653.1084262398209</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>183.7779758710894</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>680.607728397287</v>
+        <v>430.0242783334557</v>
       </c>
       <c r="P6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>653.1084262398208</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>680.607728397287</v>
+        <v>637.7097382537399</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3.004312086623209</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M9" t="n">
-        <v>191.2998374487782</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="N9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>680.607728397287</v>
+        <v>278.1307147858707</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>653.1084262398209</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>680.607728397287</v>
+        <v>654.0493568580273</v>
       </c>
       <c r="O12" t="n">
-        <v>465.7417458120016</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>519.3767303776496</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="O14" t="n">
-        <v>653.1084262398209</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>3.004312086623209</v>
       </c>
       <c r="L15" t="n">
-        <v>81.06623842027952</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35899,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184359</v>
+        <v>86.8003148788559</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,10 +35971,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36127,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>886.8993927061638</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>685.740567906197</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>238.430157934579</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q21" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36364,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562006</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>238.7351072494329</v>
       </c>
       <c r="K26" t="n">
-        <v>188.528647712048</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36604,7 +36606,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36613,10 +36615,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>760.3041339439037</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>174.9574718789467</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36844,13 +36846,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>574.2156596605913</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>277.4016538534729</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>62.48282579338804</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>94.10236418953426</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37558,10 +37560,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37628,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8052598432924</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N39" t="n">
         <v>1100.318127750374</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>534.3646536318382</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>680.607728397287</v>
+        <v>859.4516769657394</v>
       </c>
       <c r="N41" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>275.4581450699646</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>124.8235959698636</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="N44" t="n">
-        <v>680.607728397287</v>
+        <v>868.5442256716215</v>
       </c>
       <c r="O44" t="n">
-        <v>192.4160227002419</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>573.8137250192647</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>185.0884955279291</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>756259.4921810401</v>
+        <v>754258.8456742752</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12049526.89607447</v>
+        <v>12157779.51246666</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2713959.118571168</v>
+        <v>2820057.50789716</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7581636.819506716</v>
+        <v>7564746.249557497</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>376.3896246940046</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -712,19 +712,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>155.0373467949607</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -822,19 +822,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>167.8164790129221</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>115.1055716303395</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -904,7 +904,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -913,7 +913,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>35.37378012511944</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -955,16 +955,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>390.6690756443562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>96.44420510686378</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>123.0673923170405</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1141,7 +1141,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -1150,7 +1150,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1186,22 +1186,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>70.06464285818245</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>36.75455491934336</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>123.0673923170405</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1384,7 +1384,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>269.7236417674965</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>285.8242071249203</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348149</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>400.6383092219083</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -1660,13 +1660,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>86.47434149530828</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1675,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1827,13 +1827,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>244.3275881150115</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>51.58543740429418</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2140,7 +2140,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250128</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>180.0196592840957</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>78.16614128474215</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>8.209635605837841</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2715,7 +2715,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>98.15366458399269</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>24.43802729683371</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>218.008057705788</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3675,7 +3675,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>96.44420510686396</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3745,22 +3745,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>405.9505566596838</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>144.0985297928087</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3903,16 +3903,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>11.12043047005107</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>40.77490860721769</v>
       </c>
       <c r="X44" t="n">
-        <v>77.0883371869469</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>73.28515221530699</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4194,10 +4194,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>863.9256988112818</v>
+        <v>2105.957479589756</v>
       </c>
       <c r="C2" t="n">
-        <v>863.9256988112818</v>
+        <v>1679.056749603056</v>
       </c>
       <c r="D2" t="n">
-        <v>863.9256988112818</v>
+        <v>1255.764128788056</v>
       </c>
       <c r="E2" t="n">
-        <v>863.9256988112818</v>
+        <v>829.7871889359142</v>
       </c>
       <c r="F2" t="n">
-        <v>483.7341587163277</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L2" t="n">
-        <v>1123.5801824935</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M2" t="n">
-        <v>1674.245717477938</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="N2" t="n">
-        <v>1674.245717477938</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="O2" t="n">
-        <v>2224.911252462377</v>
+        <v>2522.285462586535</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462377</v>
+        <v>3230.564741744462</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U2" t="n">
-        <v>1641.263477976562</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="V2" t="n">
-        <v>1283.774063102812</v>
+        <v>3333.917192413192</v>
       </c>
       <c r="W2" t="n">
-        <v>1283.774063102812</v>
+        <v>2937.525842713539</v>
       </c>
       <c r="X2" t="n">
-        <v>1283.774063102812</v>
+        <v>2525.805843881286</v>
       </c>
       <c r="Y2" t="n">
-        <v>1283.774063102812</v>
+        <v>2525.805843881286</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924753</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L3" t="n">
-        <v>44.49822504924753</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M3" t="n">
-        <v>287.7093087981016</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N3" t="n">
-        <v>838.3748437825398</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="O3" t="n">
-        <v>838.3748437825398</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>513.1504836861761</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S4" t="n">
-        <v>2061.60438497749</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T4" t="n">
-        <v>2061.60438497749</v>
+        <v>2008.971436981848</v>
       </c>
       <c r="U4" t="n">
-        <v>2061.60438497749</v>
+        <v>1728.786988482153</v>
       </c>
       <c r="V4" t="n">
-        <v>2061.60438497749</v>
+        <v>1447.075521090182</v>
       </c>
       <c r="W4" t="n">
-        <v>1786.751981150003</v>
+        <v>1172.223117262695</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>929.6592207084997</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>703.3164523982417</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2516.694910195414</v>
+        <v>1822.182314657674</v>
       </c>
       <c r="C5" t="n">
-        <v>2089.794180208714</v>
+        <v>1395.281584670974</v>
       </c>
       <c r="D5" t="n">
-        <v>1666.501559393715</v>
+        <v>971.9889638559746</v>
       </c>
       <c r="E5" t="n">
-        <v>1240.524619541572</v>
+        <v>971.9889638559746</v>
       </c>
       <c r="F5" t="n">
-        <v>815.4004377309723</v>
+        <v>546.8647820453748</v>
       </c>
       <c r="G5" t="n">
-        <v>411.061375320421</v>
+        <v>142.5257196348234</v>
       </c>
       <c r="H5" t="n">
-        <v>113.1929967944558</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I5" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>440.8995843548225</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K5" t="n">
-        <v>440.8995843548225</v>
+        <v>396.6319083693176</v>
       </c>
       <c r="L5" t="n">
-        <v>440.8995843548225</v>
+        <v>396.6319083693176</v>
       </c>
       <c r="M5" t="n">
-        <v>818.8259796696775</v>
+        <v>1286.36665548672</v>
       </c>
       <c r="N5" t="n">
-        <v>1787.740533201524</v>
+        <v>2176.101402604123</v>
       </c>
       <c r="O5" t="n">
-        <v>2632.885183352336</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="P5" t="n">
-        <v>3341.164462510264</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q5" t="n">
-        <v>3797.249942014447</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R5" t="n">
-        <v>3914.80627689635</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S5" t="n">
-        <v>3810.43898276949</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T5" t="n">
-        <v>3589.513411814124</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U5" t="n">
-        <v>3331.158502410536</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V5" t="n">
-        <v>3331.158502410536</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W5" t="n">
-        <v>3331.158502410536</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="X5" t="n">
-        <v>3331.158502410536</v>
+        <v>2242.030678949204</v>
       </c>
       <c r="Y5" t="n">
-        <v>2936.543274486944</v>
+        <v>2242.030678949204</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>645.4196165693822</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C6" t="n">
-        <v>527.913713086887</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D6" t="n">
-        <v>424.073754602172</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E6" t="n">
-        <v>319.3718208751092</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F6" t="n">
-        <v>225.7259905580134</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G6" t="n">
-        <v>131.6722187756174</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H6" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I6" t="n">
-        <v>78.296125537927</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J6" t="n">
-        <v>78.296125537927</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K6" t="n">
-        <v>78.296125537927</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L6" t="n">
-        <v>915.0949336208331</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="M6" t="n">
-        <v>915.0949336208331</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="N6" t="n">
-        <v>915.0949336208331</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="O6" t="n">
-        <v>1340.818969170954</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P6" t="n">
-        <v>1340.818969170954</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q6" t="n">
-        <v>1804.964446033734</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R6" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S6" t="n">
-        <v>1805.659508679691</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T6" t="n">
-        <v>1663.77957297737</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U6" t="n">
-        <v>1479.011376897006</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V6" t="n">
-        <v>1274.038238036272</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W6" t="n">
-        <v>1077.51686086949</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X6" t="n">
-        <v>914.0395146361526</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y6" t="n">
-        <v>774.346625989445</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>302.375191087591</v>
+        <v>513.1504836861761</v>
       </c>
       <c r="C7" t="n">
-        <v>302.375191087591</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="D7" t="n">
-        <v>302.375191087591</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="E7" t="n">
-        <v>302.375191087591</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F7" t="n">
-        <v>302.375191087591</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G7" t="n">
-        <v>302.375191087591</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H7" t="n">
-        <v>178.064693797651</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I7" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J7" t="n">
-        <v>135.787453762085</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K7" t="n">
-        <v>362.3150549679222</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L7" t="n">
-        <v>717.0043762623429</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.190171232594</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N7" t="n">
-        <v>1485.68168210863</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O7" t="n">
-        <v>1841.109810788393</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P7" t="n">
-        <v>2131.709022710294</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q7" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R7" t="n">
-        <v>2211.670539638229</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S7" t="n">
-        <v>2041.535492157363</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T7" t="n">
-        <v>1798.196144383263</v>
+        <v>2008.971436981848</v>
       </c>
       <c r="U7" t="n">
-        <v>1518.011695883568</v>
+        <v>1728.786988482153</v>
       </c>
       <c r="V7" t="n">
-        <v>1236.300228491596</v>
+        <v>1447.075521090182</v>
       </c>
       <c r="W7" t="n">
-        <v>961.4478246641095</v>
+        <v>1172.223117262695</v>
       </c>
       <c r="X7" t="n">
-        <v>718.8839281099146</v>
+        <v>929.6592207084997</v>
       </c>
       <c r="Y7" t="n">
-        <v>492.5411597996566</v>
+        <v>703.3164523982417</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2516.694910195414</v>
+        <v>1786.4512236222</v>
       </c>
       <c r="C8" t="n">
-        <v>2089.794180208714</v>
+        <v>1359.5504936355</v>
       </c>
       <c r="D8" t="n">
-        <v>1666.501559393715</v>
+        <v>936.2578728205004</v>
       </c>
       <c r="E8" t="n">
-        <v>1240.524619541572</v>
+        <v>936.2578728205004</v>
       </c>
       <c r="F8" t="n">
-        <v>815.4004377309723</v>
+        <v>511.1336910099006</v>
       </c>
       <c r="G8" t="n">
-        <v>411.061375320421</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H8" t="n">
-        <v>113.1929967944558</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I8" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J8" t="n">
-        <v>440.8995843548225</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K8" t="n">
-        <v>1156.407892330322</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L8" t="n">
-        <v>1156.407892330322</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="M8" t="n">
-        <v>1156.407892330322</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="N8" t="n">
-        <v>1787.740533201524</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="O8" t="n">
-        <v>2632.885183352336</v>
+        <v>2522.285462586535</v>
       </c>
       <c r="P8" t="n">
-        <v>3341.164462510264</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q8" t="n">
-        <v>3797.249942014447</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R8" t="n">
-        <v>3914.80627689635</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S8" t="n">
-        <v>3810.43898276949</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T8" t="n">
-        <v>3589.513411814124</v>
+        <v>3419.748206490745</v>
       </c>
       <c r="U8" t="n">
-        <v>3331.158502410536</v>
+        <v>3419.748206490745</v>
       </c>
       <c r="V8" t="n">
-        <v>2973.669087536786</v>
+        <v>3419.748206490745</v>
       </c>
       <c r="W8" t="n">
-        <v>2936.543274486944</v>
+        <v>3023.356856791092</v>
       </c>
       <c r="X8" t="n">
-        <v>2936.543274486944</v>
+        <v>2611.636857958839</v>
       </c>
       <c r="Y8" t="n">
-        <v>2936.543274486944</v>
+        <v>2206.29958791373</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>645.4196165693822</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C9" t="n">
-        <v>527.913713086887</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D9" t="n">
-        <v>424.073754602172</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E9" t="n">
-        <v>319.3718208751092</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F9" t="n">
-        <v>225.7259905580134</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G9" t="n">
-        <v>131.6722187756174</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H9" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J9" t="n">
-        <v>78.296125537927</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K9" t="n">
-        <v>81.27039450368397</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="L9" t="n">
-        <v>918.0692025865901</v>
+        <v>1770.878981273657</v>
       </c>
       <c r="M9" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="N9" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O9" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P9" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q9" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R9" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S9" t="n">
-        <v>1805.659508679691</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T9" t="n">
-        <v>1663.77957297737</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U9" t="n">
-        <v>1479.011376897006</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V9" t="n">
-        <v>1274.038238036272</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W9" t="n">
-        <v>1077.51686086949</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X9" t="n">
-        <v>914.0395146361526</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y9" t="n">
-        <v>774.346625989445</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>302.375191087591</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C10" t="n">
-        <v>178.064693797651</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D10" t="n">
-        <v>178.064693797651</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E10" t="n">
-        <v>178.064693797651</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F10" t="n">
-        <v>178.064693797651</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G10" t="n">
-        <v>178.064693797651</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H10" t="n">
-        <v>178.064693797651</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I10" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J10" t="n">
-        <v>135.787453762085</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K10" t="n">
-        <v>362.3150549679222</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L10" t="n">
-        <v>717.0043762623429</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M10" t="n">
-        <v>1108.190171232594</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N10" t="n">
-        <v>1485.68168210863</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O10" t="n">
-        <v>1841.109810788393</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P10" t="n">
-        <v>2131.709022710294</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q10" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R10" t="n">
-        <v>2211.670539638229</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S10" t="n">
-        <v>2041.535492157363</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T10" t="n">
-        <v>1798.196144383263</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U10" t="n">
-        <v>1518.011695883568</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V10" t="n">
-        <v>1236.300228491596</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W10" t="n">
-        <v>961.4478246641095</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X10" t="n">
-        <v>718.8839281099146</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y10" t="n">
-        <v>492.5411597996566</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1814.487469258898</v>
+        <v>2080.537224061262</v>
       </c>
       <c r="C11" t="n">
-        <v>1387.586739272198</v>
+        <v>1653.636494074563</v>
       </c>
       <c r="D11" t="n">
-        <v>964.294118457198</v>
+        <v>1230.343873259563</v>
       </c>
       <c r="E11" t="n">
-        <v>538.3171786050556</v>
+        <v>804.3669334074203</v>
       </c>
       <c r="F11" t="n">
-        <v>113.1929967944558</v>
+        <v>379.2427515968205</v>
       </c>
       <c r="G11" t="n">
-        <v>113.1929967944558</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H11" t="n">
-        <v>113.1929967944558</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I11" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J11" t="n">
-        <v>440.8995843548225</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K11" t="n">
-        <v>1156.407892330322</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L11" t="n">
-        <v>2086.032939949598</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="M11" t="n">
-        <v>2361.38234758761</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="N11" t="n">
-        <v>2361.38234758761</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="O11" t="n">
-        <v>3206.526997738422</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P11" t="n">
-        <v>3914.80627689635</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q11" t="n">
-        <v>3914.80627689635</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R11" t="n">
-        <v>3914.80627689635</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S11" t="n">
-        <v>3810.43898276949</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T11" t="n">
-        <v>3589.513411814124</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U11" t="n">
-        <v>3331.158502410536</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="V11" t="n">
-        <v>3042.447182082334</v>
+        <v>2912.105587185045</v>
       </c>
       <c r="W11" t="n">
-        <v>2646.05583238268</v>
+        <v>2912.105587185045</v>
       </c>
       <c r="X11" t="n">
-        <v>2234.335833550428</v>
+        <v>2500.385588352792</v>
       </c>
       <c r="Y11" t="n">
-        <v>2234.335833550428</v>
+        <v>2500.385588352792</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>645.4196165693822</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C12" t="n">
-        <v>527.913713086887</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D12" t="n">
-        <v>424.073754602172</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E12" t="n">
-        <v>319.3718208751092</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F12" t="n">
-        <v>225.7259905580134</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G12" t="n">
-        <v>131.6722187756174</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H12" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I12" t="n">
-        <v>78.296125537927</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J12" t="n">
-        <v>349.9936148175181</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K12" t="n">
-        <v>349.9936148175181</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L12" t="n">
-        <v>349.9936148175181</v>
+        <v>1778.325624235569</v>
       </c>
       <c r="M12" t="n">
-        <v>349.9936148175181</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="N12" t="n">
-        <v>997.5024781069651</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O12" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P12" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q12" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R12" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S12" t="n">
-        <v>1805.659508679691</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T12" t="n">
-        <v>1663.77957297737</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U12" t="n">
-        <v>1479.011376897006</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V12" t="n">
-        <v>1274.038238036272</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W12" t="n">
-        <v>1077.51686086949</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X12" t="n">
-        <v>914.0395146361526</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y12" t="n">
-        <v>774.346625989445</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>492.5411597996566</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C13" t="n">
-        <v>492.5411597996566</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D13" t="n">
-        <v>492.5411597996566</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E13" t="n">
-        <v>492.5411597996566</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F13" t="n">
-        <v>488.1179319952645</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G13" t="n">
-        <v>321.8609622894967</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H13" t="n">
-        <v>178.064693797651</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I13" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J13" t="n">
-        <v>135.787453762085</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K13" t="n">
-        <v>362.3150549679222</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L13" t="n">
-        <v>717.0043762623429</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M13" t="n">
-        <v>1108.190171232594</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N13" t="n">
-        <v>1485.68168210863</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O13" t="n">
-        <v>1841.109810788393</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P13" t="n">
-        <v>2131.709022710294</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q13" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2211.670539638229</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S13" t="n">
-        <v>2041.535492157363</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T13" t="n">
-        <v>1798.196144383263</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U13" t="n">
-        <v>1518.011695883568</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V13" t="n">
-        <v>1236.300228491596</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W13" t="n">
-        <v>961.4478246641095</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X13" t="n">
-        <v>718.8839281099146</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y13" t="n">
-        <v>492.5411597996566</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2089.794180208714</v>
+        <v>1661.879739374708</v>
       </c>
       <c r="C14" t="n">
-        <v>2089.794180208714</v>
+        <v>1234.979009388008</v>
       </c>
       <c r="D14" t="n">
-        <v>1666.501559393715</v>
+        <v>1234.979009388008</v>
       </c>
       <c r="E14" t="n">
-        <v>1240.524619541572</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="F14" t="n">
-        <v>815.4004377309723</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G14" t="n">
-        <v>411.061375320421</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H14" t="n">
-        <v>113.1929967944558</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I14" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J14" t="n">
-        <v>78.296125537927</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K14" t="n">
-        <v>793.804433513426</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L14" t="n">
-        <v>1723.429481132703</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="M14" t="n">
-        <v>2237.612444206576</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="N14" t="n">
-        <v>3206.526997738422</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="O14" t="n">
-        <v>3206.526997738422</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P14" t="n">
-        <v>3914.80627689635</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q14" t="n">
-        <v>3914.80627689635</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R14" t="n">
-        <v>3914.80627689635</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S14" t="n">
-        <v>3810.43898276949</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T14" t="n">
-        <v>3723.09116307726</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U14" t="n">
-        <v>3723.09116307726</v>
+        <v>3232.165663610574</v>
       </c>
       <c r="V14" t="n">
-        <v>3723.09116307726</v>
+        <v>2874.676248736824</v>
       </c>
       <c r="W14" t="n">
-        <v>3326.699813377606</v>
+        <v>2478.284899037171</v>
       </c>
       <c r="X14" t="n">
-        <v>2914.979814545354</v>
+        <v>2066.564900204919</v>
       </c>
       <c r="Y14" t="n">
-        <v>2509.642544500244</v>
+        <v>2066.564900204919</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>645.4196165693822</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C15" t="n">
-        <v>527.913713086887</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D15" t="n">
-        <v>424.073754602172</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E15" t="n">
-        <v>319.3718208751092</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F15" t="n">
-        <v>225.7259905580134</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G15" t="n">
-        <v>131.6722187756174</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H15" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J15" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K15" t="n">
-        <v>81.27039450368397</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L15" t="n">
-        <v>918.0692025865901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M15" t="n">
-        <v>918.0692025865901</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N15" t="n">
-        <v>1886.983756118437</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="O15" t="n">
-        <v>1886.983756118437</v>
+        <v>1082.368360800129</v>
       </c>
       <c r="P15" t="n">
-        <v>1886.983756118437</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q15" t="n">
-        <v>1886.983756118437</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R15" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S15" t="n">
-        <v>1805.659508679691</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T15" t="n">
-        <v>1663.77957297737</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U15" t="n">
-        <v>1479.011376897006</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V15" t="n">
-        <v>1274.038238036272</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W15" t="n">
-        <v>1077.51686086949</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X15" t="n">
-        <v>914.0395146361526</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y15" t="n">
-        <v>774.346625989445</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>989.5046849410799</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C16" t="n">
-        <v>989.5046849410799</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D16" t="n">
-        <v>826.1879120678506</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E16" t="n">
-        <v>659.9797062207041</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F16" t="n">
-        <v>488.1179319952645</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G16" t="n">
-        <v>321.8609622894967</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H16" t="n">
-        <v>178.064693797651</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I16" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J16" t="n">
-        <v>135.787453762085</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K16" t="n">
-        <v>362.3150549679222</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L16" t="n">
-        <v>717.0043762623429</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M16" t="n">
-        <v>1108.190171232594</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N16" t="n">
-        <v>1485.68168210863</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O16" t="n">
-        <v>1841.109810788393</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P16" t="n">
-        <v>2131.709022710294</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q16" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R16" t="n">
-        <v>2211.670539638229</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2041.535492157363</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T16" t="n">
-        <v>1798.196144383263</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U16" t="n">
-        <v>1518.011695883568</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V16" t="n">
-        <v>1236.300228491596</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W16" t="n">
-        <v>989.5046849410799</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X16" t="n">
-        <v>989.5046849410799</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y16" t="n">
-        <v>989.5046849410799</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,49 +5503,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787243</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5600,10 +5600,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5761,22 +5761,22 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.856391133499</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
         <v>5010.768376164567</v>
@@ -5834,19 +5834,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O21" t="n">
-        <v>692.7876399741681</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P21" t="n">
         <v>1364.825557038856</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>2065.542080025265</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1783.830612633294</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1783.830612633294</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,19 +5977,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
         <v>1180.414480198223</v>
@@ -6001,25 +6001,25 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6077,19 +6077,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>437.5920494001418</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="C25" t="n">
-        <v>265.6194862790578</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="D25" t="n">
-        <v>102.3027134058285</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6147,10 +6147,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>338.6504695827671</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>1054.158777558266</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1983.783825177543</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2988.069926596601</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596601</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747413</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6317,10 +6317,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1191.617659878699</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O27" t="n">
-        <v>1191.617659878699</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
         <v>1364.825557038856</v>
@@ -6363,13 +6363,13 @@
         <v>373.4203922683193</v>
       </c>
       <c r="C28" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
         <v>102.3027134058285</v>
@@ -6384,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6545,22 +6545,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3375.975369221654</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>3204.00280610057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>3204.00280610057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>3106.584417103737</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>5115.135670291426</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>4871.796322517326</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>4591.611874017631</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>4309.900406625659</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>4035.048002798173</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>3792.484106243978</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>3566.14133793372</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>3306.448039710918</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>3306.448039710918</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>3306.448039710918</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>4025.820723818556</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>5115.135670291426</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>5115.135670291426</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>5115.135670291426</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>5115.135670291426</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1844.556469506584</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1844.556469506584</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6946,28 +6946,28 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7022,22 +7022,22 @@
         <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>1808.730580298577</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1822.202732251165</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1822.202732251165</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1822.202732251165</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>195.4640539534674</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1125.089101572744</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.375202991802</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478503</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629315</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787243</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5554397491844</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>371.5828766281004</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>371.5828766281004</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>371.5828766281004</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>199.7211024026608</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
         <v>102.3027134058285</v>
@@ -7332,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.628073325703</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>960.064176771508</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>733.72140846125</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1340.372104668241</v>
+        <v>2212.428163474342</v>
       </c>
       <c r="C41" t="n">
-        <v>913.4713746815407</v>
+        <v>1785.527433487643</v>
       </c>
       <c r="D41" t="n">
-        <v>503.4203073485268</v>
+        <v>1362.234812672643</v>
       </c>
       <c r="E41" t="n">
-        <v>503.4203073485268</v>
+        <v>936.2578728205004</v>
       </c>
       <c r="F41" t="n">
-        <v>78.296125537927</v>
+        <v>511.1336910099006</v>
       </c>
       <c r="G41" t="n">
-        <v>78.296125537927</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H41" t="n">
-        <v>78.296125537927</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I41" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J41" t="n">
-        <v>78.296125537927</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K41" t="n">
-        <v>793.804433513426</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L41" t="n">
-        <v>793.804433513426</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M41" t="n">
-        <v>1644.661593709508</v>
+        <v>2587.596785141716</v>
       </c>
       <c r="N41" t="n">
-        <v>2613.576147241355</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="O41" t="n">
-        <v>3458.720797392167</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="P41" t="n">
-        <v>3458.720797392167</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="Q41" t="n">
-        <v>3914.80627689635</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R41" t="n">
-        <v>3914.80627689635</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S41" t="n">
-        <v>3810.43898276949</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T41" t="n">
-        <v>3589.513411814124</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U41" t="n">
-        <v>3331.158502410536</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V41" t="n">
-        <v>2973.669087536786</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W41" t="n">
-        <v>2577.277737837133</v>
+        <v>3449.333796643235</v>
       </c>
       <c r="X41" t="n">
-        <v>2165.55773900488</v>
+        <v>3037.613797810982</v>
       </c>
       <c r="Y41" t="n">
-        <v>1760.220468959771</v>
+        <v>2632.276527765873</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>645.4196165693822</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C42" t="n">
-        <v>527.913713086887</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D42" t="n">
-        <v>424.073754602172</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E42" t="n">
-        <v>319.3718208751092</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F42" t="n">
-        <v>225.7259905580134</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G42" t="n">
-        <v>131.6722187756174</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H42" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I42" t="n">
-        <v>78.296125537927</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J42" t="n">
-        <v>78.296125537927</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K42" t="n">
-        <v>78.296125537927</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="L42" t="n">
-        <v>78.296125537927</v>
+        <v>274.6529237674293</v>
       </c>
       <c r="M42" t="n">
-        <v>78.296125537927</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="N42" t="n">
-        <v>1047.210679069774</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="O42" t="n">
-        <v>1047.210679069774</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P42" t="n">
-        <v>1763.408396108272</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q42" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R42" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S42" t="n">
-        <v>1805.659508679691</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T42" t="n">
-        <v>1663.77957297737</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U42" t="n">
-        <v>1479.011376897006</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V42" t="n">
-        <v>1274.038238036272</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W42" t="n">
-        <v>1077.51686086949</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X42" t="n">
-        <v>914.0395146361526</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y42" t="n">
-        <v>774.346625989445</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>762.888199655383</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C43" t="n">
-        <v>590.915636534299</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D43" t="n">
-        <v>427.5988636610697</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E43" t="n">
-        <v>261.3906578139232</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F43" t="n">
-        <v>89.52888358848364</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G43" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H43" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I43" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J43" t="n">
-        <v>135.787453762085</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K43" t="n">
-        <v>362.3150549679222</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L43" t="n">
-        <v>717.0043762623429</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M43" t="n">
-        <v>1108.190171232594</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N43" t="n">
-        <v>1485.68168210863</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O43" t="n">
-        <v>1841.109810788393</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P43" t="n">
-        <v>2131.709022710294</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q43" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S43" t="n">
-        <v>2258.709152951055</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T43" t="n">
-        <v>2258.709152951055</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.52470445136</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V43" t="n">
-        <v>1696.813237059388</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W43" t="n">
-        <v>1421.960833231901</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X43" t="n">
-        <v>1179.396936677707</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y43" t="n">
-        <v>953.0541683674487</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2183.92966041292</v>
+        <v>2212.428163474342</v>
       </c>
       <c r="C44" t="n">
-        <v>1757.02893042622</v>
+        <v>1785.527433487643</v>
       </c>
       <c r="D44" t="n">
-        <v>1333.736309611221</v>
+        <v>1362.234812672643</v>
       </c>
       <c r="E44" t="n">
-        <v>907.7593697590781</v>
+        <v>936.2578728205004</v>
       </c>
       <c r="F44" t="n">
-        <v>482.6351879484783</v>
+        <v>511.1336910099006</v>
       </c>
       <c r="G44" t="n">
-        <v>78.296125537927</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H44" t="n">
-        <v>78.296125537927</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I44" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J44" t="n">
-        <v>440.8995843548225</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K44" t="n">
-        <v>1156.407892330322</v>
+        <v>434.501216159716</v>
       </c>
       <c r="L44" t="n">
-        <v>2086.032939949598</v>
+        <v>1324.235963277119</v>
       </c>
       <c r="M44" t="n">
-        <v>3054.947493481445</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="N44" t="n">
-        <v>3914.80627689635</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="O44" t="n">
-        <v>3914.80627689635</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P44" t="n">
-        <v>3914.80627689635</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q44" t="n">
-        <v>3914.80627689635</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R44" t="n">
-        <v>3914.80627689635</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S44" t="n">
-        <v>3914.80627689635</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T44" t="n">
-        <v>3693.880705940983</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U44" t="n">
-        <v>3435.525796537396</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="V44" t="n">
-        <v>3078.036381663645</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="W44" t="n">
-        <v>2681.645031963993</v>
+        <v>3449.333796643235</v>
       </c>
       <c r="X44" t="n">
-        <v>2603.77802470445</v>
+        <v>3037.613797810982</v>
       </c>
       <c r="Y44" t="n">
-        <v>2603.77802470445</v>
+        <v>2632.276527765873</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>645.4196165693822</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C45" t="n">
-        <v>527.913713086887</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D45" t="n">
-        <v>424.073754602172</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E45" t="n">
-        <v>319.3718208751092</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F45" t="n">
-        <v>225.7259905580134</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G45" t="n">
-        <v>131.6722187756174</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H45" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I45" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J45" t="n">
-        <v>349.9936148175181</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K45" t="n">
-        <v>349.9936148175181</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L45" t="n">
-        <v>349.9936148175181</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M45" t="n">
-        <v>918.0692025865901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="N45" t="n">
-        <v>1886.983756118437</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="O45" t="n">
-        <v>1886.983756118437</v>
+        <v>618.2228839373497</v>
       </c>
       <c r="P45" t="n">
-        <v>1886.983756118437</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q45" t="n">
-        <v>1886.983756118437</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R45" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S45" t="n">
-        <v>1805.659508679691</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T45" t="n">
-        <v>1663.77957297737</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U45" t="n">
-        <v>1479.011376897006</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V45" t="n">
-        <v>1274.038238036272</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W45" t="n">
-        <v>1077.51686086949</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X45" t="n">
-        <v>914.0395146361526</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y45" t="n">
-        <v>774.346625989445</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>905.977675619876</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C46" t="n">
-        <v>734.005112498792</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D46" t="n">
-        <v>734.005112498792</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E46" t="n">
-        <v>659.9797062207041</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F46" t="n">
-        <v>488.1179319952645</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G46" t="n">
-        <v>321.8609622894967</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H46" t="n">
-        <v>178.064693797651</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I46" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J46" t="n">
-        <v>135.787453762085</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K46" t="n">
-        <v>362.3150549679222</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L46" t="n">
-        <v>717.0043762623429</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M46" t="n">
-        <v>1108.190171232594</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N46" t="n">
-        <v>1485.68168210863</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O46" t="n">
-        <v>1841.109810788393</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P46" t="n">
-        <v>2131.709022710294</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q46" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R46" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S46" t="n">
-        <v>2088.57410547019</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T46" t="n">
-        <v>1845.23475769609</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U46" t="n">
-        <v>1565.050309196394</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V46" t="n">
-        <v>1565.050309196394</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W46" t="n">
-        <v>1565.050309196394</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X46" t="n">
-        <v>1322.4864126422</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y46" t="n">
-        <v>1096.143644331942</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L2" t="n">
-        <v>205.7998844961774</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>404.1278315708194</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8066,19 +8066,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>268.7645418748068</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>51.11232664953685</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>363.778894760968</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>419.1750965508005</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N5" t="n">
-        <v>1015.981192058534</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O5" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L6" t="n">
-        <v>867.7664080100944</v>
+        <v>72.59316121846759</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8309,16 +8309,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>453.1961680556779</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>758.5002654165255</v>
@@ -8461,16 +8461,16 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N8" t="n">
-        <v>674.989361088186</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>753.0089771212694</v>
+        <v>541.5759579399291</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8531,16 +8531,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>25.40354591995655</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L9" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M9" t="n">
-        <v>1001.798349736416</v>
+        <v>133.9113326837148</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
@@ -8695,10 +8695,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>315.5619776853026</v>
+        <v>477.1978630942636</v>
       </c>
       <c r="N11" t="n">
         <v>37.27962283444602</v>
@@ -8710,7 +8710,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8765,25 +8765,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N12" t="n">
-        <v>675.3923850715689</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>977.3272420480539</v>
+        <v>478.0786426274547</v>
       </c>
       <c r="M14" t="n">
-        <v>556.8079932770813</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1015.981192058534</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9008,28 +9008,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>25.40354591995655</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N15" t="n">
-        <v>1000.044597437629</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>145.1273001665714</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,7 +9181,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>124.3756766890872</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9248,13 +9248,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9409,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>723.1315272622212</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9494,10 +9494,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P21" t="n">
-        <v>700.5970200580485</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
@@ -9649,7 +9649,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>924.1790155406089</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9725,22 +9725,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>268.1550667350194</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9886,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9965,13 +9965,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P27" t="n">
-        <v>196.7283130837754</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,25 +10193,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>61.33870991727026</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>660.9541399377149</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,10 +10670,10 @@
         <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>126.3894711060262</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
@@ -10682,13 +10682,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>129.8669649843436</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10840,10 +10840,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -10922,10 +10922,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M41" t="n">
-        <v>896.8829398651711</v>
+        <v>590.817640565187</v>
       </c>
       <c r="N41" t="n">
-        <v>1015.981192058534</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11144,13 +11144,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>219.7964235452367</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N42" t="n">
-        <v>1000.044597437629</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11159,7 +11159,7 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>147.5706342588421</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11299,25 +11299,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>977.3272420480539</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M44" t="n">
-        <v>1016.132832123519</v>
+        <v>301.2115609307245</v>
       </c>
       <c r="N44" t="n">
-        <v>905.8238485060675</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11375,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11384,22 +11384,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>596.9105055315927</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1000.044597437629</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22549,22 +22549,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>44.48331529848917</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22600,19 +22600,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>198.8771739300523</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -22710,19 +22710,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.326677470263036</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22752,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>53.32812537571701</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22792,7 +22792,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>259.5159146155861</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22843,16 +22843,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.6148217003024</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22944,25 +22944,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>68.1019186818112</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>19.29091348988663</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23029,7 +23029,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23038,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23074,22 +23074,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>148.6516723876307</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>355.6728812833132</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23181,7 +23181,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>47.18544517283263</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -23190,7 +23190,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -23199,7 +23199,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>130.5720300189493</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -23314,13 +23314,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>68.09031360009266</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23427,16 +23427,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>15.01157142670644</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>132.2419737505049</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>27.77629167420065</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>60.1185983045572</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>153.4739695386592</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -24612,7 +24612,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24846,7 +24846,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>68.10191868181069</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>252.944576717865</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>22.13019988286487</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.15019490184622</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25599,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>13.10913794716589</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>248.3289064098478</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>153.4739695386591</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25836,10 +25836,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>351.6525275954389</v>
       </c>
       <c r="X44" t="n">
-        <v>330.5144616569833</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26031,19 +26031,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>91.26097157336798</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>440623.7515812275</v>
+        <v>578218.0337410168</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>610349.1982210114</v>
+        <v>578218.0337410165</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>610349.1982210114</v>
+        <v>578218.0337410166</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>610349.1982210113</v>
+        <v>578218.0337410166</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>610349.1982210114</v>
+        <v>578218.0337410166</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>730904.8773982294</v>
+        <v>730904.8773982296</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>610349.1982210117</v>
+        <v>578218.0337410166</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>610349.1982210117</v>
+        <v>578218.0337410166</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160941.5819322671</v>
+        <v>211196.7930223968</v>
       </c>
       <c r="C2" t="n">
-        <v>222932.4438660748</v>
+        <v>211196.7930223968</v>
       </c>
       <c r="D2" t="n">
-        <v>222932.4438660749</v>
+        <v>211196.7930223967</v>
       </c>
       <c r="E2" t="n">
-        <v>222932.4438660748</v>
+        <v>211196.7930223968</v>
       </c>
       <c r="F2" t="n">
-        <v>222932.4438660748</v>
+        <v>211196.7930223967</v>
       </c>
       <c r="G2" t="n">
         <v>266964.4414902873</v>
@@ -26337,25 +26337,25 @@
         <v>266964.4414902873</v>
       </c>
       <c r="J2" t="n">
+        <v>266964.4414902873</v>
+      </c>
+      <c r="K2" t="n">
         <v>266964.4414902874</v>
-      </c>
-      <c r="K2" t="n">
-        <v>266964.4414902873</v>
       </c>
       <c r="L2" t="n">
         <v>266964.4414902873</v>
       </c>
       <c r="M2" t="n">
-        <v>266964.4414902872</v>
+        <v>266964.4414902873</v>
       </c>
       <c r="N2" t="n">
         <v>266964.4414902873</v>
       </c>
       <c r="O2" t="n">
-        <v>222932.4438660748</v>
+        <v>211196.7930223967</v>
       </c>
       <c r="P2" t="n">
-        <v>222932.4438660748</v>
+        <v>211196.7930223967</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>301182.4016749751</v>
       </c>
       <c r="C3" t="n">
-        <v>136488.8862029676</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>82248.07044717239</v>
+        <v>104169.2797816197</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>235145.2102775613</v>
       </c>
       <c r="K3" t="n">
-        <v>108731.2256621307</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9081.116486988822</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="C4" t="n">
-        <v>12609.7743387567</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="D4" t="n">
-        <v>12609.7743387567</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="E4" t="n">
-        <v>12609.7743387567</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="F4" t="n">
-        <v>12609.7743387567</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="I4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="K4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="L4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="M4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="O4" t="n">
-        <v>12609.7743387567</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="P4" t="n">
-        <v>12609.7743387567</v>
+        <v>11941.75496939597</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="C5" t="n">
-        <v>93132.65540882452</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="D5" t="n">
-        <v>93132.65540882452</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="E5" t="n">
-        <v>59505.05540882452</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="F5" t="n">
-        <v>59505.05540882452</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>59505.05540882452</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="P5" t="n">
-        <v>59505.05540882452</v>
+        <v>54642.29558054353</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-101990.5190068871</v>
+        <v>-190541.8038040068</v>
       </c>
       <c r="C6" t="n">
-        <v>-19298.87208447405</v>
+        <v>110640.5978709683</v>
       </c>
       <c r="D6" t="n">
-        <v>117190.0141184937</v>
+        <v>110640.5978709683</v>
       </c>
       <c r="E6" t="n">
-        <v>150817.6141184936</v>
+        <v>144268.1978709683</v>
       </c>
       <c r="F6" t="n">
-        <v>150817.6141184936</v>
+        <v>144268.1978709683</v>
       </c>
       <c r="G6" t="n">
-        <v>91850.13519675782</v>
+        <v>69877.89520012612</v>
       </c>
       <c r="H6" t="n">
-        <v>174098.2056439303</v>
+        <v>174047.1749817459</v>
       </c>
       <c r="I6" t="n">
-        <v>174098.2056439302</v>
+        <v>174047.1749817458</v>
       </c>
       <c r="J6" t="n">
-        <v>28564.53570911381</v>
+        <v>-61098.03529581549</v>
       </c>
       <c r="K6" t="n">
-        <v>65366.97998179952</v>
+        <v>174047.1749817459</v>
       </c>
       <c r="L6" t="n">
-        <v>174098.2056439302</v>
+        <v>174047.1749817458</v>
       </c>
       <c r="M6" t="n">
-        <v>174098.2056439301</v>
+        <v>174047.1749817459</v>
       </c>
       <c r="N6" t="n">
-        <v>174098.2056439302</v>
+        <v>174047.1749817459</v>
       </c>
       <c r="O6" t="n">
-        <v>150817.6141184936</v>
+        <v>144268.1978709683</v>
       </c>
       <c r="P6" t="n">
-        <v>150817.6141184936</v>
+        <v>144268.1978709682</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
-        <v>978.7015692240875</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="D4" t="n">
-        <v>978.7015692240875</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="E4" t="n">
-        <v>978.7015692240875</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="F4" t="n">
-        <v>978.7015692240875</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>978.7015692240875</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="P4" t="n">
-        <v>978.7015692240875</v>
+        <v>898.7219667852554</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
-        <v>422.4737561084933</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>300.0823483487691</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="K4" t="n">
-        <v>422.4737561084933</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="K4" t="n">
-        <v>422.4737561084933</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>300.0823483487691</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L2" t="n">
-        <v>167.4878420635545</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>368.0031569662214</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>245.6677613624788</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>29.76929843599519</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>328.0142939661587</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>381.7438336513687</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N5" t="n">
-        <v>978.7015692240875</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O5" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L6" t="n">
-        <v>845.2513212958648</v>
+        <v>50.07807450423802</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>430.0242783334557</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>722.7356646217162</v>
@@ -35181,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N8" t="n">
-        <v>637.7097382537399</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>715.433615311038</v>
+        <v>504.0005961296978</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>3.004312086623209</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L9" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M9" t="n">
-        <v>978.7015692240875</v>
+        <v>110.8145521713869</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35415,10 +35415,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>278.1307147858707</v>
+        <v>439.7666001948318</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N12" t="n">
-        <v>654.0493568580273</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>939.015199615431</v>
+        <v>439.7666001948318</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3767303776496</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>978.7015692240875</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>3.004312086623209</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N15" t="n">
-        <v>978.7015692240875</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>121.9554104443492</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,7 +35901,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>86.8003148788559</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35968,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36129,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>685.740567906197</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,10 +36214,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P21" t="n">
-        <v>678.8261788532199</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>468.8338150129084</v>
@@ -36369,7 +36369,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>886.8993927061629</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>238.7351072494329</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36606,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P27" t="n">
-        <v>174.9574718789467</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>623.5228770382831</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,10 +37390,10 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>103.2926905936983</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>94.10236418953426</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37560,10 +37560,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M41" t="n">
-        <v>859.4516769657394</v>
+        <v>553.3863776657553</v>
       </c>
       <c r="N41" t="n">
-        <v>978.7015692240875</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>197.2813368310071</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N42" t="n">
-        <v>978.7015692240875</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>124.8235959698636</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>939.015199615431</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M44" t="n">
-        <v>978.7015692240875</v>
+        <v>263.7802980312927</v>
       </c>
       <c r="N44" t="n">
-        <v>868.5442256716215</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>573.8137250192647</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>978.7015692240875</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
